--- a/data/outputs/management_altmetric/34.xlsx
+++ b/data/outputs/management_altmetric/34.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE58"/>
+  <dimension ref="A1:CF58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1029,6 +1034,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1534,6 +1545,9 @@
       </c>
       <c r="CE4" t="n">
         <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -1774,6 +1788,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2013,6 +2030,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2255,6 +2275,9 @@
       </c>
       <c r="CE7" t="n">
         <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
@@ -2491,6 +2514,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2729,6 +2755,9 @@
       </c>
       <c r="CE9" t="n">
         <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2955,6 +2984,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3184,6 +3216,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3405,6 +3440,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3648,6 +3686,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3894,6 +3935,9 @@
       </c>
       <c r="CE14" t="n">
         <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>4.55</v>
       </c>
     </row>
     <row r="15">
@@ -4134,6 +4178,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4373,6 +4420,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4620,6 +4670,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4867,6 +4920,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5114,6 +5170,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5357,6 +5416,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5599,6 +5661,9 @@
       </c>
       <c r="CE21" t="n">
         <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="22">
@@ -5839,6 +5904,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6074,6 +6142,9 @@
         <v>0</v>
       </c>
       <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6305,6 +6376,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6532,6 +6606,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6759,6 +6836,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6998,6 +7078,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>24.45</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7245,6 +7328,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7491,6 +7577,9 @@
       </c>
       <c r="CE29" t="n">
         <v>0</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>1.35</v>
       </c>
     </row>
     <row r="30">
@@ -7731,6 +7820,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7974,6 +8066,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8228,6 +8323,9 @@
       </c>
       <c r="CE32" t="n">
         <v>0</v>
+      </c>
+      <c r="CF32" t="n">
+        <v>8.35</v>
       </c>
     </row>
     <row r="33">
@@ -8468,6 +8566,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8707,6 +8808,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8950,6 +9054,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9205,6 +9312,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9460,6 +9570,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9702,6 +9815,9 @@
       </c>
       <c r="CE38" t="n">
         <v>0</v>
+      </c>
+      <c r="CF38" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="39">
@@ -9936,6 +10052,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10161,6 +10280,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10404,6 +10526,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>22.23</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10651,6 +10776,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>16.45</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -10898,6 +11026,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11152,6 +11283,9 @@
       </c>
       <c r="CE44" t="n">
         <v>0</v>
+      </c>
+      <c r="CF44" t="n">
+        <v>3.35</v>
       </c>
     </row>
     <row r="45">
@@ -11392,6 +11526,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11635,6 +11772,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11885,6 +12025,9 @@
       </c>
       <c r="CE47" t="n">
         <v>0</v>
+      </c>
+      <c r="CF47" t="n">
+        <v>2.95</v>
       </c>
     </row>
     <row r="48">
@@ -12127,6 +12270,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12373,6 +12519,9 @@
       </c>
       <c r="CE49" t="n">
         <v>0</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>14.3</v>
       </c>
     </row>
     <row r="50">
@@ -12615,6 +12764,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -12856,6 +13008,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13102,6 +13257,9 @@
       </c>
       <c r="CE52" t="n">
         <v>0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -13344,6 +13502,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13594,6 +13755,9 @@
       </c>
       <c r="CE54" t="n">
         <v>0</v>
+      </c>
+      <c r="CF54" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="55">
@@ -13826,6 +13990,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14065,6 +14232,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14312,6 +14482,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>65.93000000000001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14559,6 +14732,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
